--- a/relatorios/repasses_liberados/dentistas/29803883860/2023-08-25_relatorio_repasses_29803883860.xlsx
+++ b/relatorios/repasses_liberados/dentistas/29803883860/2023-08-25_relatorio_repasses_29803883860.xlsx
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N10">
         <v>0</v>
